--- a/db/AiCity-77-News.xlsx
+++ b/db/AiCity-77-News.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C78F5F6-C1DA-6E4D-BB73-6415E4305835}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E643BB-D40A-C540-A4B3-0F2D0E81B3C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="460" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13220" yWindow="1940" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -178,9 +178,6 @@
     <t>今日頭條</t>
   </si>
   <si>
-    <t>fig/AiCity-919-今日頭條.png</t>
-  </si>
-  <si>
     <t>https://www.toutiao.com/</t>
   </si>
   <si>
@@ -716,13 +713,38 @@
   </si>
   <si>
     <t>054</t>
+  </si>
+  <si>
+    <r>
+      <t>fig/AiCity-919-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="PMingLiU"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>今日頭條</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.png</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -740,6 +762,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="PMingLiU"/>
+      <family val="1"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1074,7 +1103,7 @@
       <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J17" sqref="J17"/>
+      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1088,7 +1117,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1105,7 +1134,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1122,7 +1151,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1139,7 +1168,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -1156,7 +1185,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
@@ -1173,7 +1202,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1190,7 +1219,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
         <v>20</v>
@@ -1207,7 +1236,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
@@ -1224,7 +1253,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -1241,7 +1270,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
         <v>29</v>
@@ -1258,7 +1287,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B11" t="s">
         <v>32</v>
@@ -1275,7 +1304,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
@@ -1292,7 +1321,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
@@ -1309,7 +1338,7 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s">
         <v>42</v>
@@ -1326,7 +1355,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B15" t="s">
         <v>45</v>
@@ -1343,7 +1372,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B16" t="s">
         <v>48</v>
@@ -1360,16 +1389,16 @@
     </row>
     <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B17" t="s">
         <v>51</v>
       </c>
       <c r="C17" t="s">
+        <v>230</v>
+      </c>
+      <c r="D17" t="s">
         <v>52</v>
-      </c>
-      <c r="D17" t="s">
-        <v>53</v>
       </c>
       <c r="E17" t="s">
         <v>41</v>
@@ -1378,648 +1407,648 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
         <v>54</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>55</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>56</v>
-      </c>
-      <c r="E18" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" t="s">
         <v>58</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>59</v>
       </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
         <v>61</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>62</v>
       </c>
-      <c r="D20" t="s">
-        <v>63</v>
-      </c>
       <c r="E20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
       <c r="E21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>68</v>
       </c>
-      <c r="D22" t="s">
-        <v>69</v>
-      </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" t="s">
         <v>70</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>71</v>
       </c>
-      <c r="D23" t="s">
-        <v>72</v>
-      </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
         <v>73</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>74</v>
       </c>
-      <c r="D24" t="s">
-        <v>75</v>
-      </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
         <v>76</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>77</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>78</v>
-      </c>
-      <c r="E25" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>81</v>
       </c>
-      <c r="D26" t="s">
-        <v>82</v>
-      </c>
       <c r="E26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" t="s">
         <v>83</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>84</v>
       </c>
-      <c r="D27" t="s">
-        <v>85</v>
-      </c>
       <c r="E27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" t="s">
         <v>86</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>87</v>
       </c>
-      <c r="D28" t="s">
-        <v>88</v>
-      </c>
       <c r="E28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>89</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>90</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>91</v>
-      </c>
-      <c r="E29" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" t="s">
         <v>93</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>94</v>
       </c>
-      <c r="D30" t="s">
-        <v>95</v>
-      </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
         <v>96</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>97</v>
       </c>
-      <c r="D31" t="s">
-        <v>98</v>
-      </c>
       <c r="E31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
         <v>99</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>100</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>101</v>
-      </c>
-      <c r="E32" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" t="s">
         <v>103</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>104</v>
       </c>
-      <c r="D33" t="s">
-        <v>105</v>
-      </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C34" t="s">
         <v>106</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>107</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>108</v>
-      </c>
-      <c r="E34" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B35" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" t="s">
         <v>110</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>111</v>
       </c>
-      <c r="D35" t="s">
-        <v>112</v>
-      </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B36" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" t="s">
         <v>113</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>114</v>
       </c>
-      <c r="D36" t="s">
-        <v>115</v>
-      </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B37" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" t="s">
         <v>116</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>117</v>
       </c>
-      <c r="D37" t="s">
-        <v>118</v>
-      </c>
       <c r="E37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" t="s">
         <v>119</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>120</v>
       </c>
-      <c r="D38" t="s">
-        <v>121</v>
-      </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" t="s">
         <v>122</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>123</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>124</v>
-      </c>
-      <c r="E39" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" t="s">
         <v>126</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>127</v>
       </c>
-      <c r="D40" t="s">
-        <v>128</v>
-      </c>
       <c r="E40" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B41" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" t="s">
         <v>129</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>130</v>
       </c>
-      <c r="D41" t="s">
-        <v>131</v>
-      </c>
       <c r="E41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" t="s">
         <v>132</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>133</v>
       </c>
-      <c r="D42" t="s">
-        <v>134</v>
-      </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" t="s">
         <v>135</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>136</v>
       </c>
-      <c r="D43" t="s">
-        <v>137</v>
-      </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B44" t="s">
+        <v>137</v>
+      </c>
+      <c r="C44" t="s">
         <v>138</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>139</v>
       </c>
-      <c r="D44" t="s">
-        <v>140</v>
-      </c>
       <c r="E44" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B45" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" t="s">
         <v>141</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>142</v>
       </c>
-      <c r="D45" t="s">
-        <v>143</v>
-      </c>
       <c r="E45" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B46" t="s">
+        <v>143</v>
+      </c>
+      <c r="C46" t="s">
         <v>144</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>145</v>
       </c>
-      <c r="D46" t="s">
-        <v>146</v>
-      </c>
       <c r="E46" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
         <v>147</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>148</v>
       </c>
-      <c r="D47" t="s">
-        <v>149</v>
-      </c>
       <c r="E47" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B48" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s">
         <v>150</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>151</v>
       </c>
-      <c r="D48" t="s">
-        <v>152</v>
-      </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B49" t="s">
+        <v>152</v>
+      </c>
+      <c r="C49" t="s">
         <v>153</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>154</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>155</v>
-      </c>
-      <c r="E49" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B50" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" t="s">
         <v>157</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>158</v>
       </c>
-      <c r="D50" t="s">
-        <v>159</v>
-      </c>
       <c r="E50" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B51" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" t="s">
         <v>160</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>161</v>
       </c>
-      <c r="D51" t="s">
-        <v>162</v>
-      </c>
       <c r="E51" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B52" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" t="s">
         <v>163</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>164</v>
       </c>
-      <c r="D52" t="s">
-        <v>165</v>
-      </c>
       <c r="E52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s">
+        <v>165</v>
+      </c>
+      <c r="C53" t="s">
         <v>166</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>167</v>
       </c>
-      <c r="D53" t="s">
+      <c r="E53" t="s">
         <v>168</v>
-      </c>
-      <c r="E53" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C54" t="s">
         <v>170</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>171</v>
       </c>
-      <c r="D54" t="s">
-        <v>172</v>
-      </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B55" t="s">
+        <v>172</v>
+      </c>
+      <c r="C55" t="s">
         <v>173</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>174</v>
       </c>
-      <c r="D55" t="s">
-        <v>175</v>
-      </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/db/AiCity-77-News.xlsx
+++ b/db/AiCity-77-News.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E643BB-D40A-C540-A4B3-0F2D0E81B3C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85FFB43-35CF-1D46-B27D-CD28E504C93D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13220" yWindow="1940" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7340" yWindow="460" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="235">
   <si>
     <t>title</t>
   </si>
@@ -737,6 +737,20 @@
       </rPr>
       <t>.png</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/channel/UC5l1Yto5oOIgRXlI4p4VKbw</t>
+  </si>
+  <si>
+    <t>中天新聞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>055</t>
+  </si>
+  <si>
+    <t>fig/AiCity-923-中天新聞.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1097,13 +1111,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C17" sqref="C17"/>
+      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2051,6 +2065,23 @@
         <v>168</v>
       </c>
     </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B56" t="s">
+        <v>232</v>
+      </c>
+      <c r="C56" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" t="s">
+        <v>231</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>

--- a/db/AiCity-77-News.xlsx
+++ b/db/AiCity-77-News.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F85FFB43-35CF-1D46-B27D-CD28E504C93D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B31DEC-12C0-B94F-89B8-68A84A176771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7340" yWindow="460" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11380" yWindow="1300" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="247">
   <si>
     <t>title</t>
   </si>
@@ -747,10 +747,53 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>055</t>
-  </si>
-  <si>
     <t>fig/AiCity-923-中天新聞.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>056</t>
+  </si>
+  <si>
+    <t>057</t>
+  </si>
+  <si>
+    <t>058</t>
+  </si>
+  <si>
+    <t>台視新聞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中視新聞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>華視新聞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/ttvnewsview</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/chinatvnews</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/user/TBSCTS</t>
+  </si>
+  <si>
+    <t>fig/AiCity-923-台視新聞.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-923-中視新聞.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-923-華視新聞.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1111,13 +1154,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="1" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1148,16 +1191,16 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>233</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
         <v>7</v>
@@ -1165,16 +1208,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -1182,16 +1225,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
@@ -1199,16 +1242,16 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
         <v>7</v>
@@ -1216,16 +1259,16 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -1233,16 +1276,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
         <v>7</v>
@@ -1250,16 +1293,16 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -1267,16 +1310,16 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -1284,16 +1327,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
         <v>7</v>
@@ -1301,16 +1344,16 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
         <v>7</v>
@@ -1318,16 +1361,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
         <v>7</v>
@@ -1335,33 +1378,33 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E14" t="s">
         <v>41</v>
@@ -1369,16 +1412,16 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
         <v>41</v>
@@ -1386,68 +1429,68 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>230</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
         <v>41</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>230</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
         <v>56</v>
@@ -1455,16 +1498,16 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
         <v>56</v>
@@ -1472,16 +1515,16 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
         <v>56</v>
@@ -1489,16 +1532,16 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E22" t="s">
         <v>56</v>
@@ -1506,16 +1549,16 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B23" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E23" t="s">
         <v>56</v>
@@ -1523,16 +1566,16 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E24" t="s">
         <v>56</v>
@@ -1540,33 +1583,33 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E26" t="s">
         <v>78</v>
@@ -1574,16 +1617,16 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B27" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C27" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E27" t="s">
         <v>78</v>
@@ -1591,16 +1634,16 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E28" t="s">
         <v>78</v>
@@ -1608,33 +1651,33 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C30" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E30" t="s">
         <v>91</v>
@@ -1642,16 +1685,16 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E31" t="s">
         <v>91</v>
@@ -1659,33 +1702,33 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E33" t="s">
         <v>101</v>
@@ -1693,33 +1736,33 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E34" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E35" t="s">
         <v>108</v>
@@ -1727,16 +1770,16 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
         <v>108</v>
@@ -1744,16 +1787,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -1761,16 +1804,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
         <v>108</v>
@@ -1778,33 +1821,33 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E39" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B40" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C40" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E40" t="s">
         <v>124</v>
@@ -1812,16 +1855,16 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E41" t="s">
         <v>124</v>
@@ -1829,16 +1872,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B42" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C42" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D42" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -1846,16 +1889,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B43" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C43" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D43" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
         <v>124</v>
@@ -1863,16 +1906,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D44" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E44" t="s">
         <v>124</v>
@@ -1880,16 +1923,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C45" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
         <v>124</v>
@@ -1897,16 +1940,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B46" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C46" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E46" t="s">
         <v>124</v>
@@ -1914,16 +1957,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B47" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D47" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E47" t="s">
         <v>124</v>
@@ -1931,16 +1974,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B48" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C48" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E48" t="s">
         <v>124</v>
@@ -1948,33 +1991,33 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B49" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D49" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B50" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E50" t="s">
         <v>155</v>
@@ -1982,16 +2025,16 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C51" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E51" t="s">
         <v>155</v>
@@ -1999,16 +2042,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D52" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E52" t="s">
         <v>155</v>
@@ -2016,33 +2059,33 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C53" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D53" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E53" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B54" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C54" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D54" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E54" t="s">
         <v>168</v>
@@ -2050,16 +2093,16 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B55" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E55" t="s">
         <v>168</v>
@@ -2067,22 +2110,76 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B56" t="s">
-        <v>232</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
+        <v>173</v>
+      </c>
+      <c r="D56" t="s">
+        <v>174</v>
+      </c>
+      <c r="E56" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="D56" t="s">
-        <v>231</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="B57" t="s">
+        <v>237</v>
+      </c>
+      <c r="C57" t="s">
+        <v>243</v>
+      </c>
+      <c r="D57" t="s">
+        <v>240</v>
+      </c>
+      <c r="E57" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B58" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" t="s">
+        <v>244</v>
+      </c>
+      <c r="D58" t="s">
+        <v>241</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B59" t="s">
+        <v>239</v>
+      </c>
+      <c r="C59" t="s">
+        <v>245</v>
+      </c>
+      <c r="D59" t="s">
+        <v>242</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J59">
+    <sortCondition ref="A2:A59"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>

--- a/db/AiCity-77-News.xlsx
+++ b/db/AiCity-77-News.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B31DEC-12C0-B94F-89B8-68A84A176771}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C15F22D-297C-9942-99AA-109B8FBC94CE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11380" yWindow="1300" windowWidth="50160" windowHeight="28340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17320" yWindow="3840" windowWidth="50040" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transformed by JSON-CSV.CO" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="251">
   <si>
     <t>title</t>
   </si>
@@ -796,12 +796,27 @@
     <t>000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>305</t>
+  </si>
+  <si>
+    <t>錢管家- Money錢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/INV-3013-Magazine-Money錢.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.moneynet.com.tw/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -827,6 +842,13 @@
       <family val="1"/>
       <charset val="136"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -845,16 +867,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyBorder="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1154,13 +1181,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J59"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="G3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1717,35 +1744,35 @@
         <v>91</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" t="s">
-        <v>100</v>
+    <row r="33" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>250</v>
       </c>
       <c r="E33" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B34" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C34" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D34" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E34" t="s">
         <v>101</v>
@@ -1753,33 +1780,33 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B36" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E36" t="s">
         <v>108</v>
@@ -1787,16 +1814,16 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B37" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E37" t="s">
         <v>108</v>
@@ -1804,16 +1831,16 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E38" t="s">
         <v>108</v>
@@ -1821,16 +1848,16 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
         <v>108</v>
@@ -1838,33 +1865,33 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B40" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C40" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E40" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B41" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C41" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E41" t="s">
         <v>124</v>
@@ -1872,16 +1899,16 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E42" t="s">
         <v>124</v>
@@ -1889,16 +1916,16 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C43" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E43" t="s">
         <v>124</v>
@@ -1906,16 +1933,16 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
         <v>124</v>
@@ -1923,16 +1950,16 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B45" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C45" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D45" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E45" t="s">
         <v>124</v>
@@ -1940,16 +1967,16 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C46" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E46" t="s">
         <v>124</v>
@@ -1957,16 +1984,16 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C47" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E47" t="s">
         <v>124</v>
@@ -1974,16 +2001,16 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E48" t="s">
         <v>124</v>
@@ -1991,16 +2018,16 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C49" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D49" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E49" t="s">
         <v>124</v>
@@ -2008,33 +2035,33 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C50" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C51" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D51" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E51" t="s">
         <v>155</v>
@@ -2042,16 +2069,16 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B52" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C52" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D52" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E52" t="s">
         <v>155</v>
@@ -2059,16 +2086,16 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B53" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D53" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E53" t="s">
         <v>155</v>
@@ -2076,33 +2103,33 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B54" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D54" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E54" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B55" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D55" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E55" t="s">
         <v>168</v>
@@ -2110,16 +2137,16 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B56" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D56" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E56" t="s">
         <v>168</v>
@@ -2127,33 +2154,33 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>174</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B58" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C58" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D58" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E58" t="s">
         <v>7</v>
@@ -2161,26 +2188,46 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C59" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D59" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E59" t="s">
         <v>7</v>
       </c>
     </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B60" t="s">
+        <v>239</v>
+      </c>
+      <c r="C60" t="s">
+        <v>245</v>
+      </c>
+      <c r="D60" t="s">
+        <v>242</v>
+      </c>
+      <c r="E60" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J59">
-    <sortCondition ref="A2:A59"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J60">
+    <sortCondition ref="A2:A60"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D33" r:id="rId1" xr:uid="{B1DC7894-BAC8-E347-BB95-EF57FEF3434D}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>

--- a/db/AiCity-77-News.xlsx
+++ b/db/AiCity-77-News.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.1_AiCity2019/AiCity2019/db/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56E47C5-E154-1241-958E-44758C7FA3FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C023E6-7F49-2047-9234-0AFB6F1D25ED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15020" yWindow="5520" windowWidth="27860" windowHeight="16820" xr2:uid="{CA7D6778-5998-D64D-8074-2A3983F7519C}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="263">
   <si>
     <t>no</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -856,6 +856,21 @@
   <si>
     <t>fig/AiCity-919-財訊.jpeg</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>061</t>
+  </si>
+  <si>
+    <t>熱狗遊戲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.regogame.com/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/AiCity-923-RegoGame.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -932,7 +947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,6 +956,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1256,10 +1272,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{991D6833-3C43-A045-AD0E-AAC76CF66741}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -2327,12 +2343,30 @@
         <v>125</v>
       </c>
     </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D63" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D33" r:id="rId1" xr:uid="{BE4A2383-EA91-CF4A-890A-36A2313C408C}"/>
     <hyperlink ref="D61" r:id="rId2" xr:uid="{D6DFF82E-785B-2C48-84F5-981B0003F24B}"/>
     <hyperlink ref="D62" r:id="rId3" xr:uid="{83EBB462-1982-3C46-BFB6-3F375B108289}"/>
+    <hyperlink ref="D63" r:id="rId4" xr:uid="{BDB0C9AA-CAD0-EF4E-9E4A-056C24DD204B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
